--- a/biology/Biochimie/Hexokinase/Hexokinase.xlsx
+++ b/biology/Biochimie/Hexokinase/Hexokinase.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Une hexokinase est une phosphotransférase qui catalyse la réaction :
@@ -519,7 +531,9 @@
           <t>Structure</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Liste ordonnée et exhaustive des acides aminés qui constituent l'hexokinase I : 
 MIAAQLLAYYFTELKDDQVKKIDKYLYAMRLSDETLIDIMTRFRKEMKNGLSRDFNPTATVKMLPTFVRS
@@ -535,7 +549,7 @@
 GQMCINMEWGAFGDNGCLDDIRTHYDRLVDEYSLNAGKQRYEKMISGMYLGEIVRNILIDFTKKGFLFRG
 QISETLKTRGIFETKFLSQIESDRLALLQVRAILQQLGLNSTCDDSILVKTVCGVVSRRAAQLCGAGMAA
 VVDKIRENRGLDRLNVTVGVDGTLYKLHPHFSRIMHQTVKELSPKCNVSFLLSEDGSGKGAALITAVGVR
-LRTEASS.[3]
+LRTEASS.
 Liste ordonnée et exhaustive des acides aminés qui constituent l'hexokinase II : 
 MIASHLLAYFFTELNHDQVQKVDQYLYHMRLSDETLLEISKRFRKEMEKGLGATTHPTAAVKMLPTFVRS
 TPDGTEHGEFLALDLGGTNFRVLWVKVTDNGLQKVEMENQIYAIPEDIMRGSGTQLFDHIAECLANFMDK
@@ -550,7 +564,7 @@
 GRMCVNMEWGAFGDNGCLDDFRTEFDVAVDELSLNPGKQRFEKMISGMYLGEIVRNILIDFTKRGLLFRG
 RISERLKTRGIFETKFLSQIESDCLALLQVRAILQHLGLESTCDDSIIVKEVCTVVARRAAQLCGAGMAA
 VVDRIRENRGLDALKVTVGVDGTLYKLHPHFAKVMHETVKDLAPKCDVSFLQSEDGSGKGAALITAVACR
-IREAGQR.[4]
+IREAGQR.
 </t>
         </is>
       </c>
@@ -579,7 +593,9 @@
           <t>Propriétés générales</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La réaction de phosphorylation des hexoses est couplée à l'hydrolyse d'une molécule d'ATP. En effet, cette phosphorylation est endergonique dans les conditions cellulaires, donc thermodynamiquement défavorable ; le couplage avec la déphosphorylation de l'ATP (réaction fortement exergonique) permet une réaction-bilan qui est globalement exergonique, et qui devient donc thermodynamiquement favorable :
 (1) Hexose + Pi → hexose 6-phosphate : réaction endergonique (thermodynamiquement défavorable) avec ΔrG°’ = 13,8 kJ·mol-1 ;
@@ -618,17 +634,88 @@
           <t>Isoenzymes des mammifères</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les mammifères possèdent quatre isoenzymes d'hexokinase dont la distribution intracellulaire et la cinétique varient en fonction des substrats et des conditions physiologiques[5],[6]. Ces quatre isoenzymes sont désignées comme hexokinases I, II, III et IV ou comme hexokinases A, B, C et D selon les auteurs.
-Hexokinases I, II et III
-Les hexokinases I, II et III portent le no EC 2.7.1.1. Elles sont dites « isoenzymes à faible KM » car elles ont une affinité élevée pour le glucose, d'où une constante de Michaelis inférieure à 1 mM. Elles sont toutes les trois fortement inhibées par le produit de leur réaction, c'est-à-dire le glucose-6-phosphate[7]. Leur masse moléculaire est voisine de 100 kDa. Elles sont formées de deux sous-unités très semblables de 50 kDa chacune, mais l'hexokinase II est la seule à posséder des sites actifs sur ces deux sous-unités. La cinétique des hexokinases I et II suit l'équation de Michaelis-Menten aux concentrations de substrat physiologiques.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les mammifères possèdent quatre isoenzymes d'hexokinase dont la distribution intracellulaire et la cinétique varient en fonction des substrats et des conditions physiologiques,. Ces quatre isoenzymes sont désignées comme hexokinases I, II, III et IV ou comme hexokinases A, B, C et D selon les auteurs.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Hexokinase</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hexokinase</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Isoenzymes des mammifères</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Hexokinases I, II et III</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Les hexokinases I, II et III portent le no EC 2.7.1.1. Elles sont dites « isoenzymes à faible KM » car elles ont une affinité élevée pour le glucose, d'où une constante de Michaelis inférieure à 1 mM. Elles sont toutes les trois fortement inhibées par le produit de leur réaction, c'est-à-dire le glucose-6-phosphate. Leur masse moléculaire est voisine de 100 kDa. Elles sont formées de deux sous-unités très semblables de 50 kDa chacune, mais l'hexokinase II est la seule à posséder des sites actifs sur ces deux sous-unités. La cinétique des hexokinases I et II suit l'équation de Michaelis-Menten aux concentrations de substrat physiologiques.
 L'hexokinase I, ou hexokinase A, est ubiquitaire, c'est-à-dire présente dans tous les tissus des mammifères et est considérée comme une enzyme de maintenance qui n'est pas affectée par la plupart des changements physiologiques, hormonaux et métaboliques.
-L'hexokinase II, ou hexokinase B, représente la principale isoforme régulée d'hexokinase d'un grand nombre de cellules et son expression est accrue dans de nombreux cancers[8]. C'est l'hexokinase du muscle et du cerveau. On la trouve également dans les mitochondries, ce qui lui permet d'accéder directement à l'ATP.
-L'hexokinase III, ou hexokinase C, est inhibée par son substrat, le glucose, aux concentrations physiologiques. On sait peu de choses au sujet du mode de régulation de cette isoforme.
-Hexokinase IV ou glucokinase
-L'hexokinase IV des mammifères, ou glucokinase, est différente des trois autres aussi bien du point de vue de sa cinétique que de sa fonction et porte le no EC 2.7.1.2. Sa constante de Michaelis pour le glucose est cent fois plus élevée que celle des hexokinases I, II et III, de sorte qu'elle n'est active sur son substrat que lorsque celui-ci est suffisamment concentré. Elle n'est constituée que d'une seule sous-unité dont la masse moléculaire est voisine de 50 kDa. Elle présente une régulation coopérative avec le glucose et n'est pas inhibée allostériquement par le glucose-6-phosphate.
-On la trouve dans le foie, le pancréas, l'hypothalamus, l'intestin grêle et peut-être également dans certaines cellules neuroendocrines (en). Elle joue un rôle régulateur important dans le métabolisme des glucides[9]. Elle contrôle la libération de l'insuline dans les cellules β des îlots de Langerhans et la libération du glucagon dans les cellules α[10]. Dans les hépatocytes du foie, elle agit en ajustant la glycogénogenèse pour n'amorcer cette voie métabolique que lorsque le taux de glucose est suffisant pour nécessiter son stockage.
+L'hexokinase II, ou hexokinase B, représente la principale isoforme régulée d'hexokinase d'un grand nombre de cellules et son expression est accrue dans de nombreux cancers. C'est l'hexokinase du muscle et du cerveau. On la trouve également dans les mitochondries, ce qui lui permet d'accéder directement à l'ATP.
+L'hexokinase III, ou hexokinase C, est inhibée par son substrat, le glucose, aux concentrations physiologiques. On sait peu de choses au sujet du mode de régulation de cette isoforme.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Hexokinase</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hexokinase</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Isoenzymes des mammifères</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Hexokinase IV ou glucokinase</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'hexokinase IV des mammifères, ou glucokinase, est différente des trois autres aussi bien du point de vue de sa cinétique que de sa fonction et porte le no EC 2.7.1.2. Sa constante de Michaelis pour le glucose est cent fois plus élevée que celle des hexokinases I, II et III, de sorte qu'elle n'est active sur son substrat que lorsque celui-ci est suffisamment concentré. Elle n'est constituée que d'une seule sous-unité dont la masse moléculaire est voisine de 50 kDa. Elle présente une régulation coopérative avec le glucose et n'est pas inhibée allostériquement par le glucose-6-phosphate.
+On la trouve dans le foie, le pancréas, l'hypothalamus, l'intestin grêle et peut-être également dans certaines cellules neuroendocrines (en). Elle joue un rôle régulateur important dans le métabolisme des glucides. Elle contrôle la libération de l'insuline dans les cellules β des îlots de Langerhans et la libération du glucagon dans les cellules α. Dans les hépatocytes du foie, elle agit en ajustant la glycogénogenèse pour n'amorcer cette voie métabolique que lorsque le taux de glucose est suffisant pour nécessiter son stockage.
 </t>
         </is>
       </c>
